--- a/BOM_Selection.xlsx
+++ b/BOM_Selection.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,29 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
-  <si>
-    <t>Ref</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="185">
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>C10 C11 C12 C5 C6 C20 C41 C19 C31 C32 C33 C26 C27 C22 C42 C40</t>
   </si>
   <si>
     <t>100nF</t>
   </si>
   <si>
-    <t>CC0603KRX7R9BB103</t>
-  </si>
-  <si>
     <t>C9 C30</t>
   </si>
   <si>
@@ -56,18 +44,12 @@
     <t>0603</t>
   </si>
   <si>
-    <t>C0603C104M5RACTU</t>
-  </si>
-  <si>
     <t>C7 C8 C28 C29</t>
   </si>
   <si>
     <t>10pF</t>
   </si>
   <si>
-    <t>GRM1885C1H100JA01D</t>
-  </si>
-  <si>
     <t>C2 C23</t>
   </si>
   <si>
@@ -77,195 +59,123 @@
     <t>1210</t>
   </si>
   <si>
-    <t>UMK325B7105KH-T</t>
-  </si>
-  <si>
     <t>C3 C24</t>
   </si>
   <si>
     <t>1nF</t>
   </si>
   <si>
-    <t>06035C102KAT2A</t>
-  </si>
-  <si>
     <t>C4 C1 C25 C21</t>
   </si>
   <si>
     <t>10µF</t>
   </si>
   <si>
-    <t>GRM32DR71C106KA01L</t>
-  </si>
-  <si>
     <t>C14 C13 C15 C35 C34 C36</t>
   </si>
   <si>
     <t>47µF</t>
   </si>
   <si>
-    <t>GRM32ER61C476KE15K</t>
-  </si>
-  <si>
     <t>C16 C37</t>
   </si>
   <si>
     <t>47pF</t>
   </si>
   <si>
-    <t>CBR06C470JAGAC</t>
-  </si>
-  <si>
     <t>C18 C39</t>
   </si>
   <si>
     <t>12pF</t>
   </si>
   <si>
-    <t>251R14S120GV4T</t>
-  </si>
-  <si>
     <t>C17 C38</t>
   </si>
   <si>
     <t>680pF</t>
   </si>
   <si>
-    <t>C0603C681F5GACTU</t>
-  </si>
-  <si>
     <t>R14 R11 R6 R2 R9 R3 R7 R92 R59 R56 R51 R47 R54 R48 R52 R96</t>
   </si>
   <si>
     <t>100k</t>
   </si>
   <si>
-    <t>AC0603FR-07100KL</t>
-  </si>
-  <si>
     <t>R10 R55</t>
   </si>
   <si>
     <t>15k</t>
   </si>
   <si>
-    <t>RMCF0603JT15K0</t>
-  </si>
-  <si>
     <t>R8 R12 R13 R93 R94 R19 R21 R22 R23 R24 R25 R31 R32 R33 R34 R35 R42 R41 R44 R53 R57 R58 R97 R98 R69 R64 R65 R66 R67 R68 R78 R79 R80 R81 R82 R90 R89 R70</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t>RMCF0603JT10K0</t>
-  </si>
-  <si>
     <t>R18 R5 R91 R63 R50 R95</t>
   </si>
   <si>
     <t>100R</t>
   </si>
   <si>
-    <t>RMCF0603JT100R</t>
-  </si>
-  <si>
     <t>R1 R46</t>
   </si>
   <si>
     <t>22k</t>
   </si>
   <si>
-    <t>RMCF0603JT22K0</t>
-  </si>
-  <si>
     <t>R4 R49</t>
   </si>
   <si>
     <t>47R</t>
   </si>
   <si>
-    <t>RMCF0603JT47R0</t>
-  </si>
-  <si>
     <t>R20 R26 R27 R28 R29 R30 R45 R76 R71 R72 R73 R74 R75 R77</t>
   </si>
   <si>
     <t>4k7</t>
   </si>
   <si>
-    <t>RMCF0603JT47K0</t>
-  </si>
-  <si>
     <t>R36 R84</t>
   </si>
   <si>
     <t>90k9</t>
   </si>
   <si>
-    <t>ERJ-3EKF9092V</t>
-  </si>
-  <si>
     <t>R40 R88</t>
   </si>
   <si>
     <t>887k</t>
   </si>
   <si>
-    <t>ERJ-P03D8873V</t>
-  </si>
-  <si>
     <t>R39 R87</t>
   </si>
   <si>
     <t>121k</t>
   </si>
   <si>
-    <t>RT0603DRE07121KL</t>
-  </si>
-  <si>
     <t>R38 R86</t>
   </si>
   <si>
     <t>6k81</t>
   </si>
   <si>
-    <t>RMCF0603FT6K81</t>
-  </si>
-  <si>
     <t>R37 R85</t>
   </si>
   <si>
     <t>49k9</t>
   </si>
   <si>
-    <t>RMCF0603FT49K9</t>
-  </si>
-  <si>
     <t>R43 R83</t>
   </si>
   <si>
     <t>0R</t>
   </si>
   <si>
-    <t>ERJ-3GEY0R00V</t>
-  </si>
-  <si>
-    <t>Kondensatoren</t>
-  </si>
-  <si>
-    <t>Widerstände</t>
-  </si>
-  <si>
-    <t>Dioden</t>
-  </si>
-  <si>
     <t>D9 D4 D1 D2 D6 D3 D5 D8 D7 D30 D29 D27 D22 D19 D20 D24 D21 D23 D26 D25 D32 D31</t>
   </si>
   <si>
-    <t>TS4148C</t>
-  </si>
-  <si>
     <t>D10 D28</t>
   </si>
   <si>
@@ -275,39 +185,21 @@
     <t>D11 D12 D13 D14 D15 D16 D17 D18 D33</t>
   </si>
   <si>
-    <t>SMF3.3</t>
-  </si>
-  <si>
-    <t>Induktivitäten</t>
-  </si>
-  <si>
     <t>L1 L3</t>
   </si>
   <si>
     <t>10nH</t>
   </si>
   <si>
-    <t>CIH10T10NJNC</t>
-  </si>
-  <si>
     <t>L2 L4</t>
   </si>
   <si>
     <t>5µH</t>
   </si>
   <si>
-    <t>CDRH5D28RNP-5R0NC</t>
-  </si>
-  <si>
-    <t>Transistoren</t>
-  </si>
-  <si>
     <t>Q2 Q17 Q10 Q18</t>
   </si>
   <si>
-    <t>AO3414</t>
-  </si>
-  <si>
     <t>Q1 Q9</t>
   </si>
   <si>
@@ -317,71 +209,383 @@
     <t>Q6 Q7 Q3 Q4 Q5 Q8 Q14 Q15 Q11 Q12 Q13 Q16</t>
   </si>
   <si>
-    <t>MMBT5551-TP</t>
-  </si>
-  <si>
-    <t>Chips</t>
-  </si>
-  <si>
     <t>U3 U8</t>
   </si>
   <si>
-    <t>ATMEGA128-16AU</t>
-  </si>
-  <si>
     <t>TQFP64</t>
   </si>
   <si>
     <t>U2 U7</t>
   </si>
   <si>
-    <t>MAX892</t>
-  </si>
-  <si>
     <t>µMax8</t>
   </si>
   <si>
     <t>U1 U6</t>
   </si>
   <si>
-    <t>MC74HC4538A</t>
-  </si>
-  <si>
     <t>SOIC16</t>
   </si>
   <si>
     <t>U4 U9</t>
   </si>
   <si>
-    <t>LTC3113</t>
-  </si>
-  <si>
     <t>TSSOP 20</t>
   </si>
   <si>
     <t>Y1 Y2</t>
   </si>
   <si>
-    <t>Quarz</t>
-  </si>
-  <si>
-    <t>407F39D007M3728</t>
-  </si>
-  <si>
-    <t>Connectors</t>
-  </si>
-  <si>
     <t>CON11 CON21</t>
   </si>
   <si>
-    <t>TOP: Samtec FTS-130-03-L-DV-SA BOTTOM: Samtec CLP-130-02-F-D-A</t>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Description2</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Place_YES/NO</t>
+  </si>
+  <si>
+    <t>Povided_by_customer_YES/NO</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>Ordernumber</t>
+  </si>
+  <si>
+    <t>Weblink</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/yageo/CC0603KRX7R9BB103/311-1085-1-ND/302995</t>
+  </si>
+  <si>
+    <t>399-7845-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/kemet/C0603C104M5RACTU/399-7845-1-ND/3471568</t>
+  </si>
+  <si>
+    <t>490-1403-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/murata-electronics-north-america/GRM1885C1H100JA01D/490-1403-1-ND/587642</t>
+  </si>
+  <si>
+    <t>587-1366-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/taiyo-yuden/UMK325B7105KH-T/587-1366-1-ND/931143</t>
+  </si>
+  <si>
+    <t>478-1215-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/avx-corporation/06035C102KAT2A/478-1215-1-ND/564247</t>
+  </si>
+  <si>
+    <t>490-1875-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/murata-electronics-north-america/GRM32DR71C106KA01L/490-1875-1-ND/587298</t>
+  </si>
+  <si>
+    <t>490-6538-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/murata-electronics-north-america/GRM32ER61C476KE15K/490-6538-1-ND/3845735</t>
+  </si>
+  <si>
+    <t>399-6191-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/kemet/CBR06C470JAGAC/399-6191-1-ND/2732170</t>
+  </si>
+  <si>
+    <t>712-1313-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/johanson-technology-inc/251R14S120GV4T/712-1313-1-ND/1786775</t>
+  </si>
+  <si>
+    <t>399-7948-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/kemet/C0603C681F5GACTU/399-7948-1-ND/3471671</t>
+  </si>
+  <si>
+    <t>311-100KLDCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/yageo/AC0603FR-07100KL/311-100KLDCT-ND/2828134</t>
+  </si>
+  <si>
+    <t>RMCF0603JT15K0CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/stackpole-electronics-inc/RMCF0603JT15K0/RMCF0603JT15K0CT-ND/1943193</t>
+  </si>
+  <si>
+    <t>RMCF0603JT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/stackpole-electronics-inc/RMCF0603JT10K0/RMCF0603JT10K0CT-ND/1943191</t>
+  </si>
+  <si>
+    <t>RMCF0603JT100RCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/stackpole-electronics-inc/RMCF0603JT100R/RMCF0603JT100RCT-ND/1943156</t>
+  </si>
+  <si>
+    <t>RMCF0603JT22K0CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/stackpole-electronics-inc/RMCF0603JT22K0/RMCF0603JT22K0CT-ND/1943195</t>
+  </si>
+  <si>
+    <t>RMCF0603JT47R0CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/stackpole-electronics-inc/RMCF0603JT47R0/RMCF0603JT47R0CT-ND/1943152</t>
+  </si>
+  <si>
+    <t>RMCF0603JT47K0CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/stackpole-electronics-inc/RMCF0603JT47K0/RMCF0603JT47K0CT-ND/1943199</t>
+  </si>
+  <si>
+    <t>P90.9KHCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/panasonic-electronic-components/ERJ-3EKF9092V/P90.9KHCT-ND/198546</t>
+  </si>
+  <si>
+    <t>P16016CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/panasonic-electronic-components/ERJ-P03D8873V/P16016CT-ND/3982363</t>
+  </si>
+  <si>
+    <t>311-2410-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/yageo/RT0603DRE07121KL/311-2410-1-ND/6128829</t>
+  </si>
+  <si>
+    <t>RMCF0603FT6K81CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/stackpole-electronics-inc/RMCF0603FT6K81/RMCF0603FT6K81CT-ND/1943046</t>
+  </si>
+  <si>
+    <t>RMCF0603FT49K9CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/stackpole-electronics-inc/RMCF0603FT49K9/RMCF0603FT49K9CT-ND/1943101</t>
+  </si>
+  <si>
+    <t>P0.0GCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/panasonic-electronic-components/ERJ-3GEY0R00V/P0.0GCT-ND/134711</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/taiwan-semiconductor-corporation/TS4148C-RZG/TS4148C-RZGCT-ND/7359812</t>
+  </si>
+  <si>
+    <t>TS4148C RZGCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/products/de?keywords=DZ2J036M0LCT-ND</t>
+  </si>
+  <si>
+    <t>F7701CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/littelfuse-inc/SMF3.3/F7701CT-ND/6189041</t>
+  </si>
+  <si>
+    <t>1276-6306-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/samsung-electro-mechanics/CIH10T10NJNC/1276-6306-1-ND/3972224</t>
+  </si>
+  <si>
+    <t>308-2073-2-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/sumida-america-components-inc/CDRH5D28RNP-5R0NC/308-2073-2-ND/3946568</t>
+  </si>
+  <si>
+    <t>785-1009-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/alpha-omega-semiconductor-inc/AO3414/785-1009-1-ND/1855951</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/products/de?keywords=SSM3J334RLFTR-ND</t>
+  </si>
+  <si>
+    <t>MMBT5551-TPTR-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/micro-commercial-co/MMBT5551-TP/MMBT5551-TPTR-ND/819635</t>
+  </si>
+  <si>
+    <t>ATMEGA128-16AURCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/microchip-technology/ATMEGA128-16AUR/ATMEGA128-16AURCT-ND/3789421</t>
+  </si>
+  <si>
+    <t>MAX892LEUA+-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/maxim-integrated/MAX892LEUA/MAX892LEUA-ND/774136</t>
+  </si>
+  <si>
+    <t>MC74HC4538ADR2GOSCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/on-semiconductor/MC74HC4538ADR2G/MC74HC4538ADR2GOSCT-ND/1139725</t>
+  </si>
+  <si>
+    <t>LTC3113IFE#PBF-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/linear-technology/LTC3113IFE-PBF/LTC3113IFE-PBF-ND/2521717</t>
+  </si>
+  <si>
+    <t>407F39D007M3728-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/products/de?keywords=407F39D007M3728</t>
+  </si>
+  <si>
+    <t>FTS-130-03-L-DV-SA-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/samtec-inc/FTS-130-03-L-DV-SA/FTS-130-03-L-DV-SA-ND/7344323</t>
+  </si>
+  <si>
+    <t>Remarks_customer</t>
+  </si>
+  <si>
+    <t>Place on Toplayer</t>
+  </si>
+  <si>
+    <t>CLP-130-02-F-D-A-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/samtec-inc/CLP-130-02-F-D-A/CLP-130-02-F-D-A-ND/6706553</t>
+  </si>
+  <si>
+    <t>Place on Bottomlayer</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>L_6.3x6.3_H3</t>
+  </si>
+  <si>
+    <t>SOD-123F</t>
+  </si>
+  <si>
+    <t>SOD-323F</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_7050-4pin_7.0x5.0mm</t>
+  </si>
+  <si>
+    <t>R15 R16</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>U5 U10</t>
+  </si>
+  <si>
+    <t>RFM23BP</t>
+  </si>
+  <si>
+    <t>311+K2:K26-1085-1-ND</t>
+  </si>
+  <si>
+    <t>Unit_price</t>
+  </si>
+  <si>
+    <t>Total_price</t>
+  </si>
+  <si>
+    <t>REMARKS_BETA</t>
+  </si>
+  <si>
+    <t>AE1 AE2</t>
+  </si>
+  <si>
+    <t>SMA_THT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,22 +616,316 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -508,11 +1006,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -526,16 +1184,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -545,15 +1194,85 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20 % - Akzent1" xfId="17" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="20" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="23" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="26" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="29" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="32" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="18" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="21" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="24" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="27" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="30" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="33" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="60 % - Akzent2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="60 % - Akzent3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="60 % - Akzent4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="60 % - Akzent5 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="60 % - Akzent6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Akzent1" xfId="16" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="19" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="22" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="25" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="28" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="31" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="8" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="9" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="7" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="15" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="14" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="5" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="36" builtinId="8"/>
+    <cellStyle name="Neutral 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Notiz" xfId="13" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="6" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="3" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="4" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Überschrift 5" xfId="34" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="10" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="12" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="11" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -865,577 +1584,1391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B7F175-0D00-4714-BA29-49BD63B60348}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2"/>
-    <col min="4" max="4" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="2"/>
+    <col min="6" max="6" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="28.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="65" style="19" customWidth="1"/>
+    <col min="13" max="13" width="28.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="L28" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="L33" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5">
+        <v>2</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5">
+        <v>2</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>108</v>
+      <c r="H41" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="4" t="s">
-        <v>116</v>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L31" r:id="rId1" xr:uid="{660ADFEC-BBBB-4896-AA7F-84CAE956134C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>